--- a/Excels/Deposit_Withdrawal.xlsx
+++ b/Excels/Deposit_Withdrawal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>type</t>
   </si>
@@ -33,19 +33,22 @@
     <t>description</t>
   </si>
   <si>
-    <t>Deposit</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
     <t>Withdrawal</t>
   </si>
   <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>ghi</t>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>minimumValue</t>
+  </si>
+  <si>
+    <t>numOfTransaction</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +377,7 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,10 +390,22 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>84806</v>
@@ -399,77 +414,19 @@
         <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>84806</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>84806</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>84806</v>
-      </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>84806</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>84806</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="F2">
+        <v>10042020</v>
+      </c>
+      <c r="G2">
+        <v>10072020</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Deposit_Withdrawal.xlsx
+++ b/Excels/Deposit_Withdrawal.xlsx
@@ -33,9 +33,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>Withdrawal</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>numOfTransaction</t>
+  </si>
+  <si>
+    <t>withdraw1</t>
   </si>
 </sst>
 </file>
@@ -369,12 +369,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -391,42 +392,42 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>84806</v>
+        <v>85246</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>10042020</v>
       </c>
       <c r="G2">
-        <v>10072020</v>
+        <v>10102020</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Deposit_Withdrawal.xlsx
+++ b/Excels/Deposit_Withdrawal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>type</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>withdraw1</t>
+  </si>
+  <si>
+    <t>deposit2</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,6 +433,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>85246</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10042020</v>
+      </c>
+      <c r="G3">
+        <v>10102020</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
